--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1009.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1009.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.192667872632488</v>
+        <v>1.323042869567871</v>
       </c>
       <c r="B1">
-        <v>2.893900061038849</v>
+        <v>1.707946181297302</v>
       </c>
       <c r="C1">
-        <v>4.225884889141053</v>
+        <v>2.457029819488525</v>
       </c>
       <c r="D1">
-        <v>2.242909699284067</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.01757440612783</v>
+        <v>1.180994510650635</v>
       </c>
     </row>
   </sheetData>
